--- a/data_year/zb/教育/网络本科分学科学生数/网络本科分学科在校学生数.xlsx
+++ b/data_year/zb/教育/网络本科分学科学生数/网络本科分学科在校学生数.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O18"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -508,688 +508,421 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2508</v>
+        <v>0.8511</v>
       </c>
       <c r="C2" t="n">
-        <v>2.2428</v>
+        <v>9.926399999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0274</v>
+        <v>0.1451</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0128</v>
+        <v>0.0411</v>
       </c>
       <c r="F2" t="n">
-        <v>6.4429</v>
+        <v>4.9641</v>
       </c>
       <c r="G2" t="n">
-        <v>14.5338</v>
+        <v>24.3318</v>
       </c>
       <c r="H2" t="n">
-        <v>7.925</v>
+        <v>9.3409</v>
       </c>
       <c r="I2" t="n">
-        <v>2.6268</v>
+        <v>4.3679</v>
       </c>
       <c r="J2" t="n">
-        <v>22.5325</v>
+        <v>20.4075</v>
       </c>
       <c r="K2" t="n">
-        <v>26.4894</v>
+        <v>20.6221</v>
       </c>
       <c r="L2" t="n">
-        <v>2.757</v>
+        <v>2.3199</v>
       </c>
       <c r="M2" t="n">
-        <v>43.9434</v>
+        <v>70.28570000000001</v>
       </c>
       <c r="N2" t="n">
-        <v>11.6291</v>
+        <v>10.7417</v>
       </c>
       <c r="O2" t="n">
-        <v>127.0458</v>
+        <v>164.0403</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2682</v>
+        <v>1.0618</v>
       </c>
       <c r="C3" t="n">
-        <v>2.4664</v>
+        <v>11.9525</v>
       </c>
       <c r="D3" t="n">
-        <v>0.053</v>
+        <v>0.1167</v>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="n">
-        <v>6.1291</v>
+        <v>4.1846</v>
       </c>
       <c r="G3" t="n">
-        <v>15.2291</v>
-      </c>
-      <c r="H3" t="n">
-        <v>9.0296</v>
-      </c>
+        <v>28.659</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>3.3414</v>
+        <v>5.9607</v>
       </c>
       <c r="J3" t="n">
-        <v>23.3215</v>
+        <v>17.5964</v>
       </c>
       <c r="K3" t="n">
-        <v>22.851</v>
+        <v>20.9866</v>
       </c>
       <c r="L3" t="n">
-        <v>2.6966</v>
+        <v>1.9218</v>
       </c>
       <c r="M3" t="n">
-        <v>47.5503</v>
+        <v>76.50530000000001</v>
       </c>
       <c r="N3" t="n">
-        <v>9.451700000000001</v>
+        <v>10.7152</v>
       </c>
       <c r="O3" t="n">
-        <v>127.2292</v>
+        <v>175.476</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2834</v>
+        <v>1.1958</v>
       </c>
       <c r="C4" t="n">
-        <v>3.5169</v>
+        <v>14.0322</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1026</v>
+        <v>0.111</v>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="n">
-        <v>5.6267</v>
+        <v>4.268</v>
       </c>
       <c r="G4" t="n">
-        <v>14.3156</v>
+        <v>35.4584</v>
       </c>
       <c r="H4" t="n">
-        <v>10.8062</v>
+        <v>7.1226</v>
       </c>
       <c r="I4" t="n">
-        <v>3.6705</v>
+        <v>6.4408</v>
       </c>
       <c r="J4" t="n">
-        <v>23.8523</v>
+        <v>17.4551</v>
       </c>
       <c r="K4" t="n">
-        <v>22.488</v>
+        <v>22.498</v>
       </c>
       <c r="L4" t="n">
-        <v>3.0716</v>
+        <v>1.8544</v>
       </c>
       <c r="M4" t="n">
-        <v>49.5358</v>
+        <v>90.3857</v>
       </c>
       <c r="N4" t="n">
-        <v>8.852600000000001</v>
+        <v>10.8384</v>
       </c>
       <c r="O4" t="n">
-        <v>129.6893</v>
+        <v>200.2698</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.429</v>
+        <v>1.3698</v>
       </c>
       <c r="C5" t="n">
-        <v>4.8863</v>
+        <v>16.0369</v>
       </c>
       <c r="D5" t="n">
-        <v>0.162</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.0135</v>
-      </c>
+        <v>0.1079</v>
+      </c>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
-        <v>5.566</v>
+        <v>3.7766</v>
       </c>
       <c r="G5" t="n">
-        <v>15.7369</v>
+        <v>41.8498</v>
       </c>
       <c r="H5" t="n">
-        <v>11.8001</v>
+        <v>5.32</v>
       </c>
       <c r="I5" t="n">
-        <v>3.9895</v>
+        <v>7.2766</v>
       </c>
       <c r="J5" t="n">
-        <v>23.9783</v>
+        <v>15.224</v>
       </c>
       <c r="K5" t="n">
-        <v>21.6007</v>
+        <v>22.5293</v>
       </c>
       <c r="L5" t="n">
-        <v>3.4038</v>
+        <v>1.7208</v>
       </c>
       <c r="M5" t="n">
-        <v>53.5647</v>
+        <v>99.3794</v>
       </c>
       <c r="N5" t="n">
-        <v>9.144399999999999</v>
+        <v>10.9499</v>
       </c>
       <c r="O5" t="n">
-        <v>136.9091</v>
+        <v>217.51</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.5652</v>
+        <v>1.6153</v>
       </c>
       <c r="C6" t="n">
-        <v>6.6429</v>
+        <v>18.4861</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1764</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.0065</v>
-      </c>
+        <v>0.1065</v>
+      </c>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="n">
-        <v>5.4836</v>
+        <v>3.2335</v>
       </c>
       <c r="G6" t="n">
-        <v>18.2542</v>
+        <v>47.9028</v>
       </c>
       <c r="H6" t="n">
-        <v>11.0797</v>
+        <v>3.2639</v>
       </c>
       <c r="I6" t="n">
-        <v>4.1575</v>
+        <v>8.0779</v>
       </c>
       <c r="J6" t="n">
-        <v>23.1086</v>
+        <v>14.0588</v>
       </c>
       <c r="K6" t="n">
-        <v>20.6589</v>
+        <v>21.5298</v>
       </c>
       <c r="L6" t="n">
-        <v>3.1609</v>
+        <v>1.7312</v>
       </c>
       <c r="M6" t="n">
-        <v>58.6959</v>
+        <v>103.4553</v>
       </c>
       <c r="N6" t="n">
-        <v>9.2439</v>
+        <v>10.5471</v>
       </c>
       <c r="O6" t="n">
-        <v>144.6709</v>
+        <v>228.701</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7472</v>
+        <v>1.7626</v>
       </c>
       <c r="C7" t="n">
-        <v>8.208399999999999</v>
+        <v>19.8642</v>
       </c>
       <c r="D7" t="n">
-        <v>0.163</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.0028</v>
-      </c>
+        <v>0.0984</v>
+      </c>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="n">
-        <v>5.5492</v>
+        <v>2.784</v>
       </c>
       <c r="G7" t="n">
-        <v>21.7228</v>
+        <v>50.4677</v>
       </c>
       <c r="H7" t="n">
-        <v>13.2297</v>
+        <v>4.6124</v>
       </c>
       <c r="I7" t="n">
-        <v>4.2831</v>
+        <v>9.0761</v>
       </c>
       <c r="J7" t="n">
-        <v>22.3232</v>
+        <v>12.7336</v>
       </c>
       <c r="K7" t="n">
-        <v>21.2764</v>
+        <v>20.6975</v>
       </c>
       <c r="L7" t="n">
-        <v>2.6633</v>
+        <v>1.6841</v>
       </c>
       <c r="M7" t="n">
-        <v>65.83320000000001</v>
+        <v>101.9676</v>
       </c>
       <c r="N7" t="n">
-        <v>10.0408</v>
+        <v>9.966699999999999</v>
       </c>
       <c r="O7" t="n">
-        <v>157.2642</v>
+        <v>229.4807</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>0.8511</v>
-      </c>
-      <c r="C8" t="n">
-        <v>9.926399999999999</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.1451</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.0411</v>
-      </c>
-      <c r="F8" t="n">
-        <v>4.9641</v>
-      </c>
-      <c r="G8" t="n">
-        <v>24.3318</v>
-      </c>
-      <c r="H8" t="n">
-        <v>9.3409</v>
-      </c>
-      <c r="I8" t="n">
-        <v>4.3679</v>
-      </c>
-      <c r="J8" t="n">
-        <v>20.4075</v>
-      </c>
-      <c r="K8" t="n">
-        <v>20.6221</v>
-      </c>
-      <c r="L8" t="n">
-        <v>2.3199</v>
-      </c>
-      <c r="M8" t="n">
-        <v>70.28570000000001</v>
-      </c>
-      <c r="N8" t="n">
-        <v>10.7417</v>
-      </c>
+          <t>2016年</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
       <c r="O8" t="n">
-        <v>164.0403</v>
+        <v>233.927</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>1.0618</v>
-      </c>
-      <c r="C9" t="n">
-        <v>11.9525</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.1167</v>
-      </c>
+          <t>2017年</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
-      <c r="F9" t="n">
-        <v>4.1846</v>
-      </c>
-      <c r="G9" t="n">
-        <v>28.659</v>
-      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
-      <c r="I9" t="n">
-        <v>5.9607</v>
-      </c>
-      <c r="J9" t="n">
-        <v>17.5964</v>
-      </c>
-      <c r="K9" t="n">
-        <v>20.9866</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1.9218</v>
-      </c>
-      <c r="M9" t="n">
-        <v>76.50530000000001</v>
-      </c>
-      <c r="N9" t="n">
-        <v>10.7152</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
       <c r="O9" t="n">
-        <v>175.476</v>
+        <v>258.7338</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>1.1958</v>
-      </c>
-      <c r="C10" t="n">
-        <v>14.0322</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.111</v>
-      </c>
+          <t>2018年</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
-      <c r="F10" t="n">
-        <v>4.268</v>
-      </c>
-      <c r="G10" t="n">
-        <v>35.4584</v>
-      </c>
-      <c r="H10" t="n">
-        <v>7.1226</v>
-      </c>
-      <c r="I10" t="n">
-        <v>6.4408</v>
-      </c>
-      <c r="J10" t="n">
-        <v>17.4551</v>
-      </c>
-      <c r="K10" t="n">
-        <v>22.498</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1.8544</v>
-      </c>
-      <c r="M10" t="n">
-        <v>90.3857</v>
-      </c>
-      <c r="N10" t="n">
-        <v>10.8384</v>
-      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
       <c r="O10" t="n">
-        <v>200.2698</v>
+        <v>282.5757</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>1.3698</v>
-      </c>
-      <c r="C11" t="n">
-        <v>16.0369</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.1079</v>
-      </c>
+          <t>2019年</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
-      <c r="F11" t="n">
-        <v>3.7766</v>
-      </c>
-      <c r="G11" t="n">
-        <v>41.8498</v>
-      </c>
-      <c r="H11" t="n">
-        <v>5.32</v>
-      </c>
-      <c r="I11" t="n">
-        <v>7.2766</v>
-      </c>
-      <c r="J11" t="n">
-        <v>15.224</v>
-      </c>
-      <c r="K11" t="n">
-        <v>22.5293</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1.7208</v>
-      </c>
-      <c r="M11" t="n">
-        <v>99.3794</v>
-      </c>
-      <c r="N11" t="n">
-        <v>10.9499</v>
-      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
       <c r="O11" t="n">
-        <v>217.51</v>
+        <v>294.161</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>1.6153</v>
-      </c>
-      <c r="C12" t="n">
-        <v>18.4861</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.1065</v>
-      </c>
+          <t>2020年</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
-      <c r="F12" t="n">
-        <v>3.2335</v>
-      </c>
-      <c r="G12" t="n">
-        <v>47.9028</v>
-      </c>
-      <c r="H12" t="n">
-        <v>3.2639</v>
-      </c>
-      <c r="I12" t="n">
-        <v>8.0779</v>
-      </c>
-      <c r="J12" t="n">
-        <v>14.0588</v>
-      </c>
-      <c r="K12" t="n">
-        <v>21.5298</v>
-      </c>
-      <c r="L12" t="n">
-        <v>1.7312</v>
-      </c>
-      <c r="M12" t="n">
-        <v>103.4553</v>
-      </c>
-      <c r="N12" t="n">
-        <v>10.5471</v>
-      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
       <c r="O12" t="n">
-        <v>228.701</v>
+        <v>311.1899</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>1.7626</v>
-      </c>
-      <c r="C13" t="n">
-        <v>19.8642</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.0984</v>
-      </c>
+          <t>2021年</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
-      <c r="F13" t="n">
-        <v>2.784</v>
-      </c>
-      <c r="G13" t="n">
-        <v>50.4677</v>
-      </c>
-      <c r="H13" t="n">
-        <v>4.6124</v>
-      </c>
-      <c r="I13" t="n">
-        <v>9.0761</v>
-      </c>
-      <c r="J13" t="n">
-        <v>12.7336</v>
-      </c>
-      <c r="K13" t="n">
-        <v>20.6975</v>
-      </c>
-      <c r="L13" t="n">
-        <v>1.6841</v>
-      </c>
-      <c r="M13" t="n">
-        <v>101.9676</v>
-      </c>
-      <c r="N13" t="n">
-        <v>9.966699999999999</v>
-      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
       <c r="O13" t="n">
-        <v>229.4807</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="n">
-        <v>233.927</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="n">
-        <v>258.7338</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="n">
-        <v>282.5757</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="n">
-        <v>294.161</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="n">
-        <v>311.1899</v>
+        <v>332.8548</v>
       </c>
     </row>
   </sheetData>
